--- a/Document/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
+++ b/Document/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3FC4A7-EE9C-4973-9521-180E4ED9B1AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E45E9D-7AEE-4F01-BAA0-B0846CFBED72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>TT</t>
   </si>
@@ -221,6 +221,9 @@
   <si>
     <t>Danh sách các tính năng sửa đổi cho Công ty VNC Post
 Cập nhật: 21/5/2019</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -395,6 +404,27 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,7 +714,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -737,37 +767,37 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="8"/>
+      <c r="J2" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
@@ -803,37 +833,37 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="10"/>
+      <c r="J4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
@@ -871,7 +901,7 @@
   </sheetData>
   <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J1048576 J2:J3" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J1048576 J2:J4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"New, Resolve, Confirm, Close, Cancel, Accept"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">

--- a/Document/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
+++ b/Document/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E45E9D-7AEE-4F01-BAA0-B0846CFBED72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70B33DE-56E0-4744-A2F7-82515FE67787}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Sua_Doi" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi!$A$1:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Loi!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>TT</t>
   </si>
@@ -71,18 +71,9 @@
     <t>Cao</t>
   </si>
   <si>
-    <t>Trung Bình</t>
-  </si>
-  <si>
     <t>Tiện ích/thông tin giao dịch</t>
   </si>
   <si>
-    <t>Thông tin kho hàng</t>
-  </si>
-  <si>
-    <t>Xem chi tiết hàng hóa trong kho</t>
-  </si>
-  <si>
     <t>Ưu tiên</t>
   </si>
   <si>
@@ -92,43 +83,7 @@
     <t>Nhập kho/Xuất kho</t>
   </si>
   <si>
-    <t>- User chỉ thấy được hàng hóa của các kho mình được phân quyền.</t>
-  </si>
-  <si>
     <t>Xuất file doc</t>
-  </si>
-  <si>
-    <t>Tìm kiếm</t>
-  </si>
-  <si>
-    <t>21/05/2019</t>
-  </si>
-  <si>
-    <t>Chỉ tìm ra các giao dịch thuộc các kho được quyền truy cập</t>
-  </si>
-  <si>
-    <t>Vẫn bị lỗi đối với phiếu mà trong phiếu hàng hóa có giá nhập, giá xuất</t>
-  </si>
-  <si>
-    <t>-Nếu user không được phân quyền vào kho X nhưng vẫn tìm ra hàng hóa của kho X (user anhbt/123456), trên danh sách hàng hóa cột Kho sẽ bị trống.</t>
-  </si>
-  <si>
-    <t>-Không xuất được file doc phiếu xuất kho/ phiếu nhập kho (anhbt/123456)</t>
-  </si>
-  <si>
-    <t>Người dùng không được phân quyền theo kho nhưng vẫn tìm ra giao dịch của kho đó =&gt; Trên danh sách kết quả trường tên Kho sẽ bị trống (anhbt/123456)</t>
-  </si>
-  <si>
-    <t>Các báo cáo file excel</t>
-  </si>
-  <si>
-    <t>Các báo cáo file excel khi xuất ra chưa có cột "Đơn vị tính"</t>
-  </si>
-  <si>
-    <t>Bổ sung cột "Đơn vị tính" sau cột số lượng trong các loại báo cáo xuất file excel</t>
-  </si>
-  <si>
-    <t>Xuất báo cáo</t>
   </si>
   <si>
     <t>Ngày hoàn thành dự kiến</t>
@@ -223,7 +178,49 @@
 Cập nhật: 21/5/2019</t>
   </si>
   <si>
-    <t>Close</t>
+    <t>-Không xuất được file doc phiếu xuất kho/ phiếu nhập kho đối với hàng hóa có giá (demo_admin/123456)</t>
+  </si>
+  <si>
+    <t>Xuất kho</t>
+  </si>
+  <si>
+    <t>Import excel</t>
+  </si>
+  <si>
+    <t>Không import được hàng hóa từ file excel</t>
+  </si>
+  <si>
+    <t>Import được hàng hóa nhưng trên danh sách hàng hóa không tính ra được trọng lượng và kích thước của từng mặt hàng</t>
+  </si>
+  <si>
+    <t>Xem thông tin kho hàng</t>
+  </si>
+  <si>
+    <t>Xuất file excel</t>
+  </si>
+  <si>
+    <t>Chưa có thông tin trọng lượng, kích thước</t>
+  </si>
+  <si>
+    <t>Đăng ký</t>
+  </si>
+  <si>
+    <t>Đăng ky</t>
+  </si>
+  <si>
+    <t>- Đăng ký thành công nhưng ko chuyển trang và không thông báo cho người dùng</t>
+  </si>
+  <si>
+    <t>DoanLV</t>
+  </si>
+  <si>
+    <t>Xem thông tin giao dịch</t>
+  </si>
+  <si>
+    <t>Trung bình</t>
+  </si>
+  <si>
+    <t>Acount server test: demo_admin/123456</t>
   </si>
 </sst>
 </file>
@@ -270,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,19 +282,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -370,9 +355,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -383,48 +365,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,7 +679,7 @@
     <col min="3" max="3" width="14.453125" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" customWidth="1"/>
     <col min="5" max="5" width="41.1796875" customWidth="1"/>
-    <col min="6" max="6" width="54.81640625" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" customWidth="1"/>
     <col min="8" max="9" width="12.26953125" customWidth="1"/>
     <col min="10" max="10" width="9.26953125" customWidth="1"/>
@@ -751,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
@@ -763,145 +718,211 @@
         <v>5</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="E2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="H2" s="17">
+        <v>43684</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>23</v>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="10"/>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="9"/>
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="17">
+        <v>43684</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="21">
+      <c r="K3" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="B4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="E4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="17">
+        <v>43684</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="E5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="17">
+        <v>43684</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="10"/>
+      <c r="K5" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="17">
+        <v>43684</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="17">
+        <v>43684</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J1048576 J2:J4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"New, Resolve, Confirm, Close, Cancel, Accept"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -918,7 +939,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -932,212 +953,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="A1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="D7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="C9" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="10">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="C11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="18" t="s">
-        <v>42</v>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Document/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
+++ b/Document/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70B33DE-56E0-4744-A2F7-82515FE67787}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC524A57-945A-424B-8B09-CDEB702D2E44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="63">
   <si>
     <t>TT</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>Acount server test: demo_admin/123456</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -375,11 +384,24 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,7 +691,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -741,7 +763,7 @@
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>43684</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -774,7 +796,7 @@
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>43684</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -807,7 +829,7 @@
       <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>43684</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -840,7 +862,7 @@
       <c r="G5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>43684</v>
       </c>
       <c r="I5" s="9" t="s">
@@ -854,74 +876,74 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="21">
         <v>43684</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="21">
         <v>43684</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="J7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="18" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"New, Resolve, Confirm, Close, Cancel, Accept"</formula1>
     </dataValidation>
@@ -953,15 +975,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">

--- a/Document/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
+++ b/Document/4.Test/1.UpToNow_Loi_DeXuatSua.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC524A57-945A-424B-8B09-CDEB702D2E44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84F6F63-3576-464B-8ABE-235A2493E5E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loi" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>TT</t>
   </si>
@@ -387,9 +387,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -402,6 +399,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,24 +691,24 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
-    <col min="8" max="9" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" customWidth="1"/>
-    <col min="11" max="11" width="38.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -743,7 +743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -776,7 +776,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -809,7 +809,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -842,7 +842,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -875,69 +875,69 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="18">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>43684</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="18">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>43684</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>61</v>
       </c>
     </row>
@@ -964,28 +964,28 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="48.08984375" customWidth="1"/>
-    <col min="4" max="5" width="15.90625" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="4" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>9</v>
       </c>
